--- a/inst/DistrNames.xlsx
+++ b/inst/DistrNames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\probSimulator\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\testPackageGolem\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECD9EE-5EB8-477A-82EA-C6E060ADE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6F54C-2BA0-4CDB-88C9-2C72C3EB8D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE83A7B5-564E-4C96-948F-97A222FEAA63}"/>
   </bookViews>
@@ -465,9 +465,6 @@
     <t>c(1,-1,1.25, -.5,.5)</t>
   </si>
   <si>
-    <t>c(-1,.6,3, 1,-1,-.6)</t>
-  </si>
-  <si>
     <t>\gamma</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>list("Log Normal (X)","Stylized Normal","Stylized Normal (X)","Normal (X)")</t>
+  </si>
+  <si>
+    <t>c(-1,.6,2, 1,.5,.25)</t>
   </si>
 </sst>
 </file>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93666C39-8581-483B-B5D6-1BA873560E18}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,10 +978,10 @@
         <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
         <v>32</v>
@@ -1002,10 +1002,10 @@
         <v>47</v>
       </c>
       <c r="X1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y1" t="s">
         <v>154</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>155</v>
       </c>
       <c r="Z1" t="s">
         <v>48</v>
@@ -1014,7 +1014,7 @@
         <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC1" t="s">
         <v>123</v>
@@ -1079,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>77</v>
@@ -1212,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>77</v>
@@ -1345,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>78</v>
@@ -1611,7 +1611,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>78</v>
@@ -1632,10 +1632,10 @@
         <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>40</v>
@@ -1665,10 +1665,10 @@
         <v>141</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>124</v>
@@ -1744,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>78</v>
@@ -1765,10 +1765,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>40</v>
@@ -1798,10 +1798,10 @@
         <v>142</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>125</v>
@@ -1877,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>77</v>
@@ -2010,7 +2010,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>109</v>
@@ -2143,7 +2143,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>103</v>
@@ -2164,10 +2164,10 @@
         <v>31</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>36</v>
@@ -2194,10 +2194,10 @@
         <v>4</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>110</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="2"/>
-        <v>manyParamSliderMaker(minVal =-3, maxVal = 3, startVals = c(-1,.6,3, 1,-1,-.6), stepVal = 0.01, paramHTML = "&amp;beta;", multi = "fullNorm", sigmaScale =c(0,2),</v>
+        <v>manyParamSliderMaker(minVal =-3, maxVal = 3, startVals = c(-1,.6,2, 1,.5,.25), stepVal = 0.01, paramHTML = "&amp;beta;", multi = "fullNorm", sigmaScale =c(0,2),</v>
       </c>
       <c r="AH10" t="str">
         <f t="shared" si="3"/>
@@ -2276,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>77</v>
@@ -2409,7 +2409,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>78</v>
@@ -2941,7 +2941,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>82</v>
@@ -2962,10 +2962,10 @@
         <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>36</v>
@@ -2995,7 +2995,7 @@
         <v>102</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>83</v>

--- a/inst/DistrNames.xlsx
+++ b/inst/DistrNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\testPackageGolem\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\Gov2k1inSilico\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6F54C-2BA0-4CDB-88C9-2C72C3EB8D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834E32FC-EA88-4978-81BE-1583BD42D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE83A7B5-564E-4C96-948F-97A222FEAA63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="167">
   <si>
     <t>Poisson</t>
   </si>
@@ -147,15 +147,6 @@
     <t>list("Predicted Values", "Expected Values", "Probability Y &gt; 1", "Sim. Parameter")</t>
   </si>
   <si>
-    <t>$ \\tilde{E}(y) = \\tilde{\\pi} = \\tilde{Pr}(Y=1)$</t>
-  </si>
-  <si>
-    <t>$ \\tilde{E}(y) =\\tilde{\\pi} = \\tilde{Pr}(Y=1)$</t>
-  </si>
-  <si>
-    <t>$ \\tilde{E}(y)$</t>
-  </si>
-  <si>
     <t>list("Predicted Values", "Expected Values")</t>
   </si>
   <si>
@@ -165,12 +156,6 @@
     <t>fullNormX</t>
   </si>
   <si>
-    <t>$ \\tilde{E}(y) =\\tilde{\\mu} = \\bar{Y}$</t>
-  </si>
-  <si>
-    <t>$ \\tilde{E}(y) =\\tilde{\\lambda} = \\bar{Y}$</t>
-  </si>
-  <si>
     <t>c(.3)</t>
   </si>
   <si>
@@ -532,6 +517,24 @@
   </si>
   <si>
     <t>c(-1,.6,2, 1,.5,.25)</t>
+  </si>
+  <si>
+    <t>$ \tilde{E}(y) =\tilde{\mu} = \bar{Y}$</t>
+  </si>
+  <si>
+    <t>$ \tilde{E}(y) = \tilde{\pi} = \tilde{Pr}(Y=1)$</t>
+  </si>
+  <si>
+    <t>$ \tilde{E}(y) =\tilde{\pi} = \tilde{Pr}(Y=1)$</t>
+  </si>
+  <si>
+    <t>$ \tilde{E}(y)$</t>
+  </si>
+  <si>
+    <t>$ \tilde{E}(y) =\tilde{\lambda} = \bar{Y}$</t>
+  </si>
+  <si>
+    <t>$blorg$</t>
   </si>
 </sst>
 </file>
@@ -900,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93666C39-8581-483B-B5D6-1BA873560E18}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,106 +945,106 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="R1" t="s">
         <v>32</v>
       </c>
       <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>65</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AK1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AL1" t="s">
         <v>19</v>
@@ -1079,19 +1082,19 @@
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>28</v>
@@ -1100,22 +1103,22 @@
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
@@ -1130,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD2">
         <v>0.01</v>
@@ -1194,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -1212,19 +1215,19 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>29</v>
@@ -1233,22 +1236,22 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V3" s="1">
         <v>-2</v>
@@ -1263,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD3">
         <v>0.01</v>
@@ -1327,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -1345,19 +1348,19 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>29</v>
@@ -1366,22 +1369,22 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V4" s="1">
         <v>-4</v>
@@ -1396,16 +1399,16 @@
         <v>5</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD4">
         <v>0.01</v>
@@ -1457,10 +1460,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -1478,19 +1481,19 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>29</v>
@@ -1499,22 +1502,22 @@
         <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V5" s="1">
         <v>-2</v>
@@ -1529,16 +1532,16 @@
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD5">
         <v>0.01</v>
@@ -1590,13 +1593,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -1611,19 +1614,19 @@
         <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>29</v>
@@ -1632,22 +1635,22 @@
         <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V6" s="1">
         <v>-3</v>
@@ -1662,16 +1665,16 @@
         <v>4</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AD6">
         <v>0.01</v>
@@ -1723,13 +1726,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -1744,19 +1747,19 @@
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>29</v>
@@ -1765,22 +1768,22 @@
         <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V7" s="1">
         <v>-3</v>
@@ -1795,16 +1798,16 @@
         <v>4</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AD7">
         <v>0.01</v>
@@ -1859,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -1877,19 +1880,19 @@
         <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>29</v>
@@ -1898,22 +1901,22 @@
         <v>31</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="V8" s="1">
         <v>-4</v>
@@ -1928,16 +1931,16 @@
         <v>5</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD8">
         <v>0.01</v>
@@ -1992,7 +1995,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -2010,19 +2013,19 @@
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>29</v>
@@ -2031,22 +2034,22 @@
         <v>31</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="V9" s="1">
         <v>-3</v>
@@ -2061,16 +2064,16 @@
         <v>4</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD9">
         <v>0.01</v>
@@ -2122,10 +2125,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2143,19 +2146,19 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>29</v>
@@ -2164,22 +2167,22 @@
         <v>31</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V10" s="1">
         <v>-3</v>
@@ -2194,16 +2197,16 @@
         <v>4</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD10">
         <v>0.01</v>
@@ -2258,10 +2261,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2276,19 +2279,19 @@
         <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>29</v>
@@ -2297,22 +2300,22 @@
         <v>31</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V11" s="1">
         <v>-0.5</v>
@@ -2327,16 +2330,16 @@
         <v>1.5</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD11">
         <v>0.01</v>
@@ -2391,10 +2394,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -2409,19 +2412,19 @@
         <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>29</v>
@@ -2430,22 +2433,22 @@
         <v>31</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V12" s="1">
         <v>-0.5</v>
@@ -2460,16 +2463,16 @@
         <v>1.5</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD12">
         <v>0.01</v>
@@ -2542,19 +2545,19 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>30</v>
@@ -2563,22 +2566,22 @@
         <v>30</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V13" s="1">
         <v>1</v>
@@ -2593,16 +2596,16 @@
         <v>25</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD13">
         <v>0.01</v>
@@ -2657,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
@@ -2675,19 +2678,19 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>29</v>
@@ -2696,22 +2699,22 @@
         <v>30</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V14" s="1">
         <v>-0.25</v>
@@ -2726,16 +2729,16 @@
         <v>4</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD14">
         <v>0.01</v>
@@ -2790,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
@@ -2808,19 +2811,19 @@
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>29</v>
@@ -2829,22 +2832,22 @@
         <v>30</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V15" s="1">
         <v>-0.25</v>
@@ -2859,16 +2862,16 @@
         <v>4</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD15">
         <v>0.01</v>
@@ -2920,10 +2923,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>0</v>
@@ -2941,19 +2944,19 @@
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>29</v>
@@ -2962,22 +2965,22 @@
         <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V16" s="1">
         <v>-0.25</v>
@@ -2992,16 +2995,16 @@
         <v>2.5</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD16">
         <v>0.01</v>
@@ -3074,19 +3077,19 @@
         <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>30</v>
@@ -3095,22 +3098,22 @@
         <v>30</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V17" s="1">
         <v>0.25</v>
@@ -3125,16 +3128,16 @@
         <v>2.5</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD17">
         <v>0.01</v>
@@ -3189,7 +3192,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -3207,19 +3210,19 @@
         <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>29</v>
@@ -3228,22 +3231,22 @@
         <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V18" s="1">
         <v>-2</v>
@@ -3258,16 +3261,16 @@
         <v>3</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD18">
         <v>0.01</v>
@@ -3322,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -3340,19 +3343,19 @@
         <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>29</v>
@@ -3361,22 +3364,22 @@
         <v>30</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="V19" s="1">
         <v>-0.5</v>
@@ -3391,16 +3394,16 @@
         <v>1.5</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD19">
         <v>0.01</v>

--- a/inst/DistrNames.xlsx
+++ b/inst/DistrNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\Gov2k1inSilico\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834E32FC-EA88-4978-81BE-1583BD42D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF15F46-BEBE-4321-8CF8-FD536C7F9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE83A7B5-564E-4C96-948F-97A222FEAA63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="166">
   <si>
     <t>Poisson</t>
   </si>
@@ -519,22 +519,19 @@
     <t>c(-1,.6,2, 1,.5,.25)</t>
   </si>
   <si>
+    <t>$ \tilde{E}(y) = \tilde{\pi} = \tilde{Pr}(Y=1)$</t>
+  </si>
+  <si>
+    <t>$ \tilde{E}(y) =\tilde{\pi} = \tilde{Pr}(Y=1)$</t>
+  </si>
+  <si>
     <t>$ \tilde{E}(y) =\tilde{\mu} = \bar{Y}$</t>
   </si>
   <si>
-    <t>$ \tilde{E}(y) = \tilde{\pi} = \tilde{Pr}(Y=1)$</t>
-  </si>
-  <si>
-    <t>$ \tilde{E}(y) =\tilde{\pi} = \tilde{Pr}(Y=1)$</t>
-  </si>
-  <si>
     <t>$ \tilde{E}(y)$</t>
   </si>
   <si>
     <t>$ \tilde{E}(y) =\tilde{\lambda} = \bar{Y}$</t>
-  </si>
-  <si>
-    <t>$blorg$</t>
   </si>
 </sst>
 </file>
@@ -903,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93666C39-8581-483B-B5D6-1BA873560E18}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1091,7 +1088,7 @@
         <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>127</v>
@@ -1224,7 +1221,7 @@
         <v>113</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>129</v>
@@ -1357,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>131</v>
@@ -1490,7 +1487,7 @@
         <v>113</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>131</v>
@@ -1623,7 +1620,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>130</v>
@@ -1756,7 +1753,7 @@
         <v>113</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>130</v>
@@ -1889,7 +1886,7 @@
         <v>113</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>129</v>
@@ -2022,7 +2019,7 @@
         <v>113</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>131</v>
@@ -2155,7 +2152,7 @@
         <v>113</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>133</v>
@@ -2953,7 +2950,7 @@
         <v>113</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>132</v>
